--- a/TESIS V3.xlsx
+++ b/TESIS V3.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dperez\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20580" windowHeight="8475" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,10 +19,11 @@
     <sheet name="REQUISITO" sheetId="5" r:id="rId5"/>
     <sheet name="VAL" sheetId="7" r:id="rId6"/>
     <sheet name="VER" sheetId="8" r:id="rId7"/>
-    <sheet name="PORTA" sheetId="6" r:id="rId8"/>
-    <sheet name="Hoja5" sheetId="9" r:id="rId9"/>
+    <sheet name="PPQA" sheetId="10" r:id="rId8"/>
+    <sheet name="PORTA" sheetId="6" r:id="rId9"/>
+    <sheet name="Hoja5" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="353">
   <si>
     <t>Implementación de buenas prácticas de CMMI - SVC e ITIL para la gestión de servicios de TI en la PYME Agile Solutions</t>
   </si>
@@ -1063,6 +1069,33 @@
   </si>
   <si>
     <t>SP 3.2.</t>
+  </si>
+  <si>
+    <t>SG1 EVALUAR OBJETIVAMENTE LOS PROCESOS Y LOS PRODUCTOS DE TRABAJO.</t>
+  </si>
+  <si>
+    <t>SP 1.1. EVALUAR OBJETIVAMENTE LOS PROCESOS.</t>
+  </si>
+  <si>
+    <t>SP 1.2 EVALUAR OBJETIVAMENTE LOS PRODUCTOS DE TRABAJO.</t>
+  </si>
+  <si>
+    <t>SG2 PROPORCIONAR UNA VISIÓN OBJETIVA.</t>
+  </si>
+  <si>
+    <t>SP 2.1  COMUNICAR Y RESOLVER LAS NO CONFORMIDADES.</t>
+  </si>
+  <si>
+    <t>SP 2.2 ESTABLECER LOS REGISTROS.</t>
+  </si>
+  <si>
+    <t>ASEGURAMIENTO DE LA CALIDAD DEL PROCESO Y DEL PRODUCTO (PPQA) - AREAS DE PROCESO DEL NIVEL 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASEGURAMIENTO DE LA CALIDAD DEL PROCESO Y DEL PRODUCTO (PPQA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aseguramiento de la Calidad del Proceso y del Producto (PPQA) </t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1197,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1228,12 +1261,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,7 +1455,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1600,6 +1627,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1619,6 +1664,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1642,43 +1708,10 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1686,6 +1719,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1699,11 +1738,11 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1717,23 +1756,14 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2076,7 +2106,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3628,6 +3658,1033 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="83" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="21"/>
+    <col min="4" max="4" width="15.42578125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="4" style="21" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="106" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="116"/>
+      <c r="B3" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="117"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="25">
+        <v>1</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="str">
+        <f>IF(F5="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="str">
+        <f>IF(F6="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="25">
+        <v>3</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="str">
+        <f>IF(F7="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>4</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>5</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>6</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="str">
+        <f>IF(F10="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
+        <v>7</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>8</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="25">
+        <v>9</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="str">
+        <f>IF(F13="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="25">
+        <v>10</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="str">
+        <f>IF(F14="X","","X")</f>
+        <v/>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="25">
+        <v>11</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="str">
+        <f>IF(F15="X","","X")</f>
+        <v/>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="25">
+        <v>12</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="str">
+        <f>IF(F16="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="25">
+        <v>13</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
+        <v>14</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="25">
+        <v>15</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="123" t="s">
+        <v>287</v>
+      </c>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="109"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="112" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="115"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="116"/>
+      <c r="B23" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="117"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25" t="str">
+        <f>IF(F25="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="25">
+        <v>2</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25" t="str">
+        <f>IF(F26="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="25">
+        <v>3</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25" t="str">
+        <f>IF(F27="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="25">
+        <v>4</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25" t="str">
+        <f>IF(F28="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="25">
+        <v>5</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="25">
+        <v>6</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="25">
+        <v>7</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25" t="str">
+        <f>IF(F31="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="25">
+        <v>8</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25" t="str">
+        <f>IF(F32="X","","X")</f>
+        <v/>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="25">
+        <v>9</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25" t="str">
+        <f>IF(F33="X","","X")</f>
+        <v/>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="25">
+        <v>10</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25" t="str">
+        <f>IF(F34="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="25">
+        <v>11</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="25">
+        <v>12</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="25"/>
+    </row>
+    <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="25">
+        <v>13</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="25">
+        <v>14</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="25">
+        <v>15</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A40" s="25">
+        <v>16</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="123" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="109"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="116"/>
+      <c r="B43" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="117"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="G44" s="68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="25">
+        <v>1</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25" t="str">
+        <f>IF(F45="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+    </row>
+    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="25">
+        <v>2</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25" t="str">
+        <f>IF(F46="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+    </row>
+    <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="25">
+        <v>3</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25" t="str">
+        <f>IF(F47="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="25">
+        <v>4</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="25">
+        <v>5</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25" t="str">
+        <f>IF(F49="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+    </row>
+    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="25">
+        <v>6</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25" t="str">
+        <f>IF(F50="X","","X")</f>
+        <v/>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="25">
+        <v>7</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25" t="str">
+        <f>IF(F51="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="25">
+        <v>8</v>
+      </c>
+      <c r="B52" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G52" s="25"/>
+    </row>
+    <row r="53" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="25">
+        <v>9</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+    </row>
+    <row r="54" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="25">
+        <v>10</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+    </row>
+    <row r="55" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="25">
+        <v>11</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+    </row>
+    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="25">
+        <v>12</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25" t="str">
+        <f>IF(F56="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+    </row>
+    <row r="57" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="25">
+        <v>13</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G57" s="25"/>
+    </row>
+    <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="25">
+        <v>14</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25" t="str">
+        <f>IF(F58="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+    </row>
+    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="25">
+        <v>15</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G59" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:G43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G15"/>
@@ -3671,10 +4728,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" ht="267" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="84" t="s">
         <v>207</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -3683,48 +4740,48 @@
       <c r="D3" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="18" t="s">
         <v>219</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="81"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="57" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="18" t="s">
         <v>215</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="81"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="78"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="81"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
@@ -3814,52 +4871,52 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="84" t="s">
         <v>207</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="78"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="22"/>
       <c r="D3" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="22"/>
       <c r="D4" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="81"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="22"/>
       <c r="D5" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="81"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
@@ -3892,41 +4949,41 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
       <c r="H3" s="28"/>
       <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="90" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="91" t="s">
         <v>226</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="31" t="s">
         <v>221</v>
       </c>
@@ -3936,21 +4993,21 @@
       <c r="D5" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="27"/>
       <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="30">
         <f>AVERAGE(F7,F11,F15,F19,F21)</f>
         <v>0.46666666666666662</v>
@@ -6356,7 +7413,7 @@
   <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6371,49 +7428,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="106" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="103"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="103"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="31" t="s">
         <v>221</v>
       </c>
@@ -6426,20 +7483,20 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="73"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>1</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="81" t="s">
         <v>329</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -6457,7 +7514,7 @@
       <c r="A8" s="17">
         <v>2</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="81" t="s">
         <v>330</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -6475,7 +7532,7 @@
       <c r="A9" s="17">
         <v>3</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="81" t="s">
         <v>331</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -6493,7 +7550,7 @@
       <c r="A10" s="23">
         <v>4</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="81" t="s">
         <v>328</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -6510,7 +7567,7 @@
       <c r="A11" s="17">
         <v>5</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="81" t="s">
         <v>332</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -6525,20 +7582,20 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="73"/>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="98"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>6</v>
       </c>
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="81" t="s">
         <v>333</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -6556,7 +7613,7 @@
       <c r="A14" s="17">
         <v>7</v>
       </c>
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="81" t="s">
         <v>255</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -6573,7 +7630,7 @@
       <c r="A15" s="17">
         <v>8</v>
       </c>
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="81" t="s">
         <v>334</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -6588,20 +7645,20 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="92" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="98"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>9</v>
       </c>
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="81" t="s">
         <v>335</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -6619,7 +7676,7 @@
       <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="81" t="s">
         <v>336</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -6639,7 +7696,7 @@
       <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="120" t="s">
+      <c r="B19" s="81" t="s">
         <v>338</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -6657,20 +7714,20 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="72"/>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="98"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>12</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="81" t="s">
         <v>337</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -6688,7 +7745,7 @@
       <c r="A22" s="39">
         <v>13</v>
       </c>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="81" t="s">
         <v>256</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -6703,20 +7760,20 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="72"/>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="98"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>14</v>
       </c>
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="81" t="s">
         <v>327</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -6733,7 +7790,7 @@
       <c r="A25" s="17">
         <v>15</v>
       </c>
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="81" t="s">
         <v>326</v>
       </c>
       <c r="C25" s="17" t="s">
@@ -6748,6 +7805,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B12:G12"/>
@@ -6755,11 +7817,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6771,7 +7828,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6785,49 +7842,49 @@
   <sheetData>
     <row r="1" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="123" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="112" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="103"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="46" t="s">
         <v>221</v>
       </c>
@@ -6840,14 +7897,14 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="69"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
@@ -6871,7 +7928,7 @@
       <c r="A8" s="43">
         <v>2</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="81" t="s">
         <v>321</v>
       </c>
       <c r="C8" s="44" t="s">
@@ -6889,7 +7946,7 @@
       <c r="A9" s="43">
         <v>3</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="81" t="s">
         <v>277</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -6905,14 +7962,14 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="70"/>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="110" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="113"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
@@ -6936,7 +7993,7 @@
       <c r="A12" s="43">
         <v>5</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="81" t="s">
         <v>279</v>
       </c>
       <c r="C12" s="44" t="s">
@@ -6953,7 +8010,7 @@
       <c r="A13" s="43">
         <v>6</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="82" t="s">
         <v>280</v>
       </c>
       <c r="C13" s="44" t="s">
@@ -6968,14 +8025,14 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="110" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="113"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="111"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="43">
@@ -7019,7 +8076,7 @@
       <c r="A17" s="43">
         <v>9</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="82" t="s">
         <v>283</v>
       </c>
       <c r="C17" s="44" t="s">
@@ -7036,26 +8093,26 @@
       <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="112" t="s">
         <v>274</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="111"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="115"/>
     </row>
     <row r="19" spans="1:7" s="41" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71"/>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="111"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="43">
@@ -7079,7 +8136,7 @@
       <c r="A21" s="43">
         <v>11</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="81" t="s">
         <v>284</v>
       </c>
       <c r="C21" s="44" t="s">
@@ -7096,7 +8153,7 @@
       <c r="A22" s="43">
         <v>12</v>
       </c>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="81" t="s">
         <v>285</v>
       </c>
       <c r="C22" s="44" t="s">
@@ -7113,7 +8170,7 @@
       <c r="A23" s="50">
         <v>13</v>
       </c>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="82" t="s">
         <v>322</v>
       </c>
       <c r="C23" s="44" t="s">
@@ -7128,14 +8185,14 @@
     </row>
     <row r="24" spans="1:7" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70"/>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="98"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="48">
@@ -7158,7 +8215,7 @@
       <c r="A26" s="43">
         <v>15</v>
       </c>
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="81" t="s">
         <v>316</v>
       </c>
       <c r="C26" s="44" t="s">
@@ -7213,8 +8270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7253,15 +8310,15 @@
       <c r="W1" s="42"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="123" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
@@ -7280,15 +8337,15 @@
       <c r="W2" s="42"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="124" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
@@ -7307,21 +8364,21 @@
       <c r="W3" s="42"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="116"/>
+      <c r="B4" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
@@ -7340,10 +8397,10 @@
       <c r="W4" s="42"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="119"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="46" t="s">
         <v>221</v>
       </c>
@@ -7372,14 +8429,14 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="75"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="94" t="s">
         <v>289</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
@@ -7419,7 +8476,7 @@
       <c r="A8" s="44">
         <v>2</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="81" t="s">
         <v>319</v>
       </c>
       <c r="C8" s="44" t="s">
@@ -7451,14 +8508,14 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="76"/>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="113"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
@@ -7480,7 +8537,7 @@
       <c r="A10" s="44">
         <v>4</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="81" t="s">
         <v>299</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -7514,7 +8571,7 @@
       <c r="A11" s="44">
         <v>5</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="81" t="s">
         <v>300</v>
       </c>
       <c r="C11" s="44" t="s">
@@ -7545,14 +8602,14 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="76"/>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="110" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
@@ -7608,7 +8665,7 @@
       <c r="A14" s="44">
         <v>8</v>
       </c>
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="81" t="s">
         <v>301</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -7641,15 +8698,15 @@
       <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="118" t="s">
         <v>292</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="117"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="121"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
@@ -7669,14 +8726,14 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="76"/>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="110" t="s">
         <v>293</v>
       </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="111"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
@@ -7732,7 +8789,7 @@
       <c r="A18" s="44">
         <v>11</v>
       </c>
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="81" t="s">
         <v>303</v>
       </c>
       <c r="C18" s="44" t="s">
@@ -7763,14 +8820,14 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="76"/>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="111"/>
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
@@ -7823,14 +8880,14 @@
     </row>
     <row r="21" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="110" t="s">
         <v>294</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="111"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
@@ -7885,7 +8942,7 @@
       <c r="A23" s="44">
         <v>15</v>
       </c>
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="81" t="s">
         <v>314</v>
       </c>
       <c r="C23" s="67" t="s">
@@ -7915,15 +8972,15 @@
       <c r="W23" s="42"/>
     </row>
     <row r="24" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114" t="s">
+      <c r="A24" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="B24" s="115"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="117"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="121"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
@@ -7943,14 +9000,14 @@
     </row>
     <row r="25" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76"/>
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="110" t="s">
         <v>307</v>
       </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="113"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="111"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
@@ -8006,7 +9063,7 @@
       <c r="A27" s="44">
         <v>11</v>
       </c>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="81" t="s">
         <v>315</v>
       </c>
       <c r="C27" s="44" t="s">
@@ -8037,14 +9094,14 @@
     </row>
     <row r="28" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="76"/>
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="110" t="s">
         <v>306</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="113"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="111"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
@@ -8100,7 +9157,7 @@
       <c r="A30" s="44">
         <v>11</v>
       </c>
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="81" t="s">
         <v>317</v>
       </c>
       <c r="C30" s="44" t="s">
@@ -8281,13 +9338,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:G4"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="B25:G25"/>
@@ -8298,6 +9348,13 @@
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8305,10 +9362,351 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="123" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="99"/>
+      <c r="B4" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="100"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="69"/>
+      <c r="B6" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
+        <v>1</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78" t="str">
+        <f>IF(F7="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
+        <v>2</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78" t="str">
+        <f>IF(F8="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
+        <v>3</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78" t="str">
+        <f>IF(F9="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="110" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>4</v>
+      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78" t="str">
+        <f>IF(F11="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
+        <v>5</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="43">
+        <v>6</v>
+      </c>
+      <c r="B13" s="82"/>
+      <c r="C13" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="112" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="115"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="71"/>
+      <c r="B15" s="110" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="43">
+        <v>10</v>
+      </c>
+      <c r="B16" s="74"/>
+      <c r="C16" s="78" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78" t="str">
+        <f>IF(F16="X","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
+        <v>11</v>
+      </c>
+      <c r="B17" s="81"/>
+      <c r="C17" s="78" t="s">
+        <v>339</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="78"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="43">
+        <v>12</v>
+      </c>
+      <c r="B18" s="81"/>
+      <c r="C18" s="78" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="78"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="50">
+        <v>13</v>
+      </c>
+      <c r="B19" s="82"/>
+      <c r="C19" s="78" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="78"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="B20" s="92" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="93"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="48">
+        <v>14</v>
+      </c>
+      <c r="B21" s="74"/>
+      <c r="C21" s="78" t="s">
+        <v>340</v>
+      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="43">
+        <v>15</v>
+      </c>
+      <c r="B22" s="81"/>
+      <c r="C22" s="78" t="s">
+        <v>340</v>
+      </c>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="48">
+        <v>16</v>
+      </c>
+      <c r="B23" s="74"/>
+      <c r="C23" s="78" t="s">
+        <v>340</v>
+      </c>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8322,12 +9720,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
     </row>
     <row r="3" spans="2:5" s="40" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="55"/>
@@ -8430,12 +9828,12 @@
       <c r="E15" s="54"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="122" t="s">
         <v>308</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
     </row>
     <row r="19" spans="2:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="55"/>
@@ -8538,12 +9936,12 @@
       <c r="E31" s="54"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="122" t="s">
         <v>309</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
     </row>
     <row r="35" spans="2:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="55"/>
@@ -8645,1039 +10043,121 @@
       <c r="D47" s="52"/>
       <c r="E47" s="54"/>
     </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="122" t="s">
+        <v>351</v>
+      </c>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="56"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="58"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="59"/>
+      <c r="C53" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="D53" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" s="63"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="59"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="63"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="59"/>
+      <c r="C55" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="E55" s="63"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="59"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="63"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="59"/>
+      <c r="C57" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" s="62" t="s">
+        <v>352</v>
+      </c>
+      <c r="E57" s="63"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="59"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="63"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="59"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" s="63"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="59"/>
+      <c r="C60" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="D60" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="E60" s="63"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="59"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="E61" s="63"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="59"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" s="63"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="53"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B50:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:G59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="123" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="21"/>
-    <col min="4" max="4" width="15.42578125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="4" style="21" customWidth="1"/>
-    <col min="7" max="7" width="43.5703125" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" s="102" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
-        <v>1</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="str">
-        <f>IF(F5="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
-        <v>2</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="str">
-        <f>IF(F6="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
-        <v>3</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25" t="str">
-        <f>IF(F7="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>4</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
-        <v>5</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
-        <v>6</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25" t="str">
-        <f>IF(F10="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
-        <v>7</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
-        <v>8</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
-        <v>9</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25" t="str">
-        <f>IF(F13="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
-        <v>10</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25" t="str">
-        <f>IF(F14="X","","X")</f>
-        <v/>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
-        <v>11</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>338</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25" t="str">
-        <f>IF(F15="X","","X")</f>
-        <v/>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
-        <v>12</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25" t="str">
-        <f>IF(F16="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
-        <v>13</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
-        <v>14</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
-        <v>15</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="122" t="s">
-        <v>287</v>
-      </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="96"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="108" t="s">
-        <v>269</v>
-      </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="111"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="118"/>
-      <c r="B23" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="D23" s="102" t="s">
-        <v>254</v>
-      </c>
-      <c r="E23" s="84" t="s">
-        <v>224</v>
-      </c>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="119"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="G24" s="68" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
-        <v>1</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25" t="str">
-        <f>IF(F25="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
-        <v>2</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25" t="str">
-        <f>IF(F26="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
-        <v>3</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>277</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25" t="str">
-        <f>IF(F27="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
-        <v>4</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25" t="str">
-        <f>IF(F28="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
-        <v>5</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
-        <v>6</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
-        <v>7</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25" t="str">
-        <f>IF(F31="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
-        <v>8</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25" t="str">
-        <f>IF(F32="X","","X")</f>
-        <v/>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="25">
-        <v>9</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25" t="str">
-        <f>IF(F33="X","","X")</f>
-        <v/>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
-        <v>10</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25" t="str">
-        <f>IF(F34="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
-        <v>11</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G35" s="25"/>
-    </row>
-    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
-        <v>12</v>
-      </c>
-      <c r="B36" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G36" s="25"/>
-    </row>
-    <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="25">
-        <v>13</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G37" s="25"/>
-    </row>
-    <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="25">
-        <v>14</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-    </row>
-    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="25">
-        <v>15</v>
-      </c>
-      <c r="B39" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-    </row>
-    <row r="40" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
-        <v>16</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="122" t="s">
-        <v>296</v>
-      </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="96"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="118"/>
-      <c r="B43" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="C43" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="102" t="s">
-        <v>254</v>
-      </c>
-      <c r="E43" s="84" t="s">
-        <v>224</v>
-      </c>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="119"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="F44" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="G44" s="68" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="25">
-        <v>1</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>297</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25" t="str">
-        <f>IF(F45="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-    </row>
-    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="25">
-        <v>2</v>
-      </c>
-      <c r="B46" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25" t="str">
-        <f>IF(F46="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-    </row>
-    <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="25">
-        <v>3</v>
-      </c>
-      <c r="B47" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25" t="str">
-        <f>IF(F47="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-    </row>
-    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="25">
-        <v>4</v>
-      </c>
-      <c r="B48" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-    </row>
-    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="25">
-        <v>5</v>
-      </c>
-      <c r="B49" s="49" t="s">
-        <v>298</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25" t="str">
-        <f>IF(F49="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-    </row>
-    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="25">
-        <v>6</v>
-      </c>
-      <c r="B50" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25" t="str">
-        <f>IF(F50="X","","X")</f>
-        <v/>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G50" s="25"/>
-    </row>
-    <row r="51" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="25">
-        <v>7</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25" t="str">
-        <f>IF(F51="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-    </row>
-    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="25">
-        <v>8</v>
-      </c>
-      <c r="B52" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G52" s="25"/>
-    </row>
-    <row r="53" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="25">
-        <v>9</v>
-      </c>
-      <c r="B53" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-    </row>
-    <row r="54" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="25">
-        <v>10</v>
-      </c>
-      <c r="B54" s="49" t="s">
-        <v>305</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-    </row>
-    <row r="55" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="25">
-        <v>11</v>
-      </c>
-      <c r="B55" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-    </row>
-    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="25">
-        <v>12</v>
-      </c>
-      <c r="B56" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25" t="str">
-        <f>IF(F56="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-    </row>
-    <row r="57" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="25">
-        <v>13</v>
-      </c>
-      <c r="B57" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G57" s="25"/>
-    </row>
-    <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="25">
-        <v>14</v>
-      </c>
-      <c r="B58" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25" t="str">
-        <f>IF(F58="X","","X")</f>
-        <v>X</v>
-      </c>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-    </row>
-    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="25">
-        <v>15</v>
-      </c>
-      <c r="B59" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G59" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>